--- a/SimulasiKKBSK.xlsx
+++ b/SimulasiKKBSK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\kkbsk-priority-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\KKBSK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D6831D-9107-41A6-A991-3B1DB6AEA5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF3674-EE8C-4DF4-9A54-F6013E9533EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D3D74F1-A90F-4391-8104-41F137213838}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -80,12 +80,6 @@
     <t>PerluasanAsuransi</t>
   </si>
   <si>
-    <t>Kredit</t>
-  </si>
-  <si>
-    <t>Reguler</t>
-  </si>
-  <si>
     <t>Mobil Baru</t>
   </si>
   <si>
@@ -98,27 +92,15 @@
     <t>A</t>
   </si>
   <si>
-    <t>Produktif</t>
-  </si>
-  <si>
     <t>250000000</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Passenger</t>
   </si>
   <si>
     <t>Jakarta, Jawa Barat dan Banten</t>
   </si>
   <si>
-    <t>Comprehensive Electric Vehicle</t>
-  </si>
-  <si>
-    <t>RSCC + TJH 25 JT + RSMB</t>
-  </si>
-  <si>
     <t>MukaDP1</t>
   </si>
   <si>
@@ -191,51 +173,71 @@
     <t>BelakangAngsuran6</t>
   </si>
   <si>
-    <t>79503900</t>
-  </si>
-  <si>
-    <t>71669200</t>
-  </si>
-  <si>
-    <t>69092600</t>
-  </si>
-  <si>
-    <t>67880100</t>
-  </si>
-  <si>
-    <t>67315900</t>
-  </si>
-  <si>
-    <t>66961400</t>
-  </si>
-  <si>
-    <t>17003900</t>
-  </si>
-  <si>
-    <t>9169200</t>
-  </si>
-  <si>
-    <t>6592600</t>
-  </si>
-  <si>
-    <t>5380100</t>
-  </si>
-  <si>
-    <t>4815900</t>
-  </si>
-  <si>
-    <t>4461400</t>
-  </si>
-  <si>
     <t>Tahun</t>
+  </si>
+  <si>
+    <t>Mini for Max</t>
+  </si>
+  <si>
+    <t>Mini For Max</t>
+  </si>
+  <si>
+    <t>Comprehensive Non Electric Vehicle</t>
+  </si>
+  <si>
+    <t>BallonPayment</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>Non Produktif</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>125000000</t>
+  </si>
+  <si>
+    <t>Lain-lainnya</t>
+  </si>
+  <si>
+    <t>RSMB + TJH 50 JT</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>3888877777</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>800000000</t>
+  </si>
+  <si>
+    <t>TLO Non Electric Vehicle</t>
+  </si>
+  <si>
+    <t>RSCC + RSMB + TJH 50 JT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -252,13 +254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,9 +291,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,234 +628,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB8DF88-258B-400E-8F89-001F8DBC3DE5}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="21" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="27" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="33" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="39" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="22" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="28" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="34" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="40" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>2017</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="P3" t="s">
         <v>61</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SimulasiKKBSK.xlsx
+++ b/SimulasiKKBSK.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\KKBSK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF3674-EE8C-4DF4-9A54-F6013E9533EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7C5C9-DAD5-4E07-9CB0-2E5DD8291C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D3D74F1-A90F-4391-8104-41F137213838}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0D3D74F1-A90F-4391-8104-41F137213838}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kredit" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -89,18 +90,12 @@
     <t>Ya</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>250000000</t>
   </si>
   <si>
     <t>Passenger</t>
   </si>
   <si>
-    <t>Jakarta, Jawa Barat dan Banten</t>
-  </si>
-  <si>
     <t>MukaDP1</t>
   </si>
   <si>
@@ -176,12 +171,6 @@
     <t>Tahun</t>
   </si>
   <si>
-    <t>Mini for Max</t>
-  </si>
-  <si>
-    <t>Mini For Max</t>
-  </si>
-  <si>
     <t>Comprehensive Non Electric Vehicle</t>
   </si>
   <si>
@@ -206,22 +195,58 @@
     <t>RSMB + TJH 50 JT</t>
   </si>
   <si>
-    <t>Tidak</t>
-  </si>
-  <si>
-    <t>3888877777</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>800000000</t>
-  </si>
-  <si>
-    <t>TLO Non Electric Vehicle</t>
-  </si>
-  <si>
-    <t>RSCC + RSMB + TJH 50 JT</t>
+    <t>Reguler QA</t>
+  </si>
+  <si>
+    <t>ManfaatTambahan</t>
+  </si>
+  <si>
+    <t>CFP + TLP + PA</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>JenisBudget</t>
+  </si>
+  <si>
+    <t>Total DP</t>
+  </si>
+  <si>
+    <t>98857700</t>
+  </si>
+  <si>
+    <t>97923100</t>
+  </si>
+  <si>
+    <t>102076900</t>
+  </si>
+  <si>
+    <t>107076300</t>
+  </si>
+  <si>
+    <t>113933700</t>
+  </si>
+  <si>
+    <t>120725100</t>
+  </si>
+  <si>
+    <t>15387800</t>
+  </si>
+  <si>
+    <t>7992700</t>
+  </si>
+  <si>
+    <t>5540100</t>
+  </si>
+  <si>
+    <t>4369900</t>
+  </si>
+  <si>
+    <t>3784200</t>
+  </si>
+  <si>
+    <t>3401300</t>
   </si>
 </sst>
 </file>
@@ -288,12 +313,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,34 +659,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB8DF88-258B-400E-8F89-001F8DBC3DE5}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="22" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="28" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="34" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="40" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="20" max="25" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="31" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="37" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="43" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,210 +701,459 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>1250000</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="T2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="U2" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="V2" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s">
+      <c r="W2" t="s">
         <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCA2653-F2B9-4BBB-9D39-6065D8ED20DF}">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="33.88671875" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SimulasiKKBSK.xlsx
+++ b/SimulasiKKBSK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\KKBSK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7C5C9-DAD5-4E07-9CB0-2E5DD8291C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B158B40-8036-4953-8CBF-19A376A90AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0D3D74F1-A90F-4391-8104-41F137213838}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D3D74F1-A90F-4391-8104-41F137213838}"/>
   </bookViews>
   <sheets>
     <sheet name="Kredit" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -81,179 +81,464 @@
     <t>PerluasanAsuransi</t>
   </si>
   <si>
+    <t>Perorangan</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>MukaDP1</t>
+  </si>
+  <si>
+    <t>MukaDP2</t>
+  </si>
+  <si>
+    <t>MukaDP3</t>
+  </si>
+  <si>
+    <t>MukaDP4</t>
+  </si>
+  <si>
+    <t>MukaDP5</t>
+  </si>
+  <si>
+    <t>MukaDP6</t>
+  </si>
+  <si>
+    <t>MukaAngsuran1</t>
+  </si>
+  <si>
+    <t>MukaAngsuran2</t>
+  </si>
+  <si>
+    <t>MukaAngsuran3</t>
+  </si>
+  <si>
+    <t>MukaAngsuran4</t>
+  </si>
+  <si>
+    <t>MukaAngsuran5</t>
+  </si>
+  <si>
+    <t>MukaAngsuran6</t>
+  </si>
+  <si>
+    <t>BelakangDP1</t>
+  </si>
+  <si>
+    <t>BelakangDP2</t>
+  </si>
+  <si>
+    <t>BelakangDP3</t>
+  </si>
+  <si>
+    <t>BelakangDP4</t>
+  </si>
+  <si>
+    <t>BelakangDP5</t>
+  </si>
+  <si>
+    <t>BelakangDP6</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran1</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran2</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran3</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran4</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran5</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran6</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Comprehensive Non Electric Vehicle</t>
+  </si>
+  <si>
+    <t>Non Produktif</t>
+  </si>
+  <si>
+    <t>Lain-lainnya</t>
+  </si>
+  <si>
+    <t>ManfaatTambahan</t>
+  </si>
+  <si>
+    <t>CFP + TLP + PA</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>JenisBudget</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
     <t>Mobil Baru</t>
   </si>
   <si>
-    <t>Perorangan</t>
-  </si>
-  <si>
-    <t>Ya</t>
-  </si>
-  <si>
-    <t>250000000</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>MukaDP1</t>
-  </si>
-  <si>
-    <t>MukaDP2</t>
-  </si>
-  <si>
-    <t>MukaDP3</t>
-  </si>
-  <si>
-    <t>MukaDP4</t>
-  </si>
-  <si>
-    <t>MukaDP5</t>
-  </si>
-  <si>
-    <t>MukaDP6</t>
-  </si>
-  <si>
-    <t>MukaAngsuran1</t>
-  </si>
-  <si>
-    <t>MukaAngsuran2</t>
-  </si>
-  <si>
-    <t>MukaAngsuran3</t>
-  </si>
-  <si>
-    <t>MukaAngsuran4</t>
-  </si>
-  <si>
-    <t>MukaAngsuran5</t>
-  </si>
-  <si>
-    <t>MukaAngsuran6</t>
-  </si>
-  <si>
-    <t>BelakangDP1</t>
-  </si>
-  <si>
-    <t>BelakangDP2</t>
-  </si>
-  <si>
-    <t>BelakangDP3</t>
-  </si>
-  <si>
-    <t>BelakangDP4</t>
-  </si>
-  <si>
-    <t>BelakangDP5</t>
-  </si>
-  <si>
-    <t>BelakangDP6</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran1</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran2</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran3</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran4</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran5</t>
-  </si>
-  <si>
-    <t>BelakangAngsuran6</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Comprehensive Non Electric Vehicle</t>
-  </si>
-  <si>
-    <t>BallonPayment</t>
+    <t>Reguler QA New</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sumatra dan Sekitarnya</t>
+  </si>
+  <si>
+    <t>Jakarta, Jawa Barat dan Banten</t>
+  </si>
+  <si>
+    <t>Combine Non Electric Vehicle</t>
+  </si>
+  <si>
+    <t>Comprehensive Electric Vehicle</t>
+  </si>
+  <si>
+    <t>10 JUTA</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>25 JUTA</t>
+  </si>
+  <si>
+    <t>TLP + PA</t>
+  </si>
+  <si>
+    <t>255426300</t>
+  </si>
+  <si>
+    <t>257589600</t>
+  </si>
+  <si>
+    <t>261539300</t>
+  </si>
+  <si>
+    <t>264760300</t>
+  </si>
+  <si>
+    <t>266845000</t>
+  </si>
+  <si>
+    <t>267763600</t>
+  </si>
+  <si>
+    <t>65864300</t>
+  </si>
+  <si>
+    <t>34489700</t>
+  </si>
+  <si>
+    <t>24093400</t>
+  </si>
+  <si>
+    <t>19146600</t>
+  </si>
+  <si>
+    <t>16708400</t>
+  </si>
+  <si>
+    <t>15132300</t>
+  </si>
+  <si>
+    <t>Badan Usaha</t>
+  </si>
+  <si>
+    <t>Solitaire</t>
+  </si>
+  <si>
+    <t>CFP + TLP</t>
+  </si>
+  <si>
+    <t>1200000000</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>CFP + PA</t>
+  </si>
+  <si>
+    <t>145200000</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>MASS</t>
   </si>
   <si>
-    <t>Non Produktif</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>125000000</t>
-  </si>
-  <si>
-    <t>Lain-lainnya</t>
-  </si>
-  <si>
-    <t>RSMB + TJH 50 JT</t>
-  </si>
-  <si>
-    <t>Reguler QA</t>
-  </si>
-  <si>
-    <t>ManfaatTambahan</t>
-  </si>
-  <si>
-    <t>CFP + TLP + PA</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>JenisBudget</t>
+    <t>TLP</t>
+  </si>
+  <si>
+    <t>244442212</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Produktif</t>
+  </si>
+  <si>
+    <t>Commercial Pick Up</t>
+  </si>
+  <si>
+    <t>TLO Non Electric Vehicle</t>
+  </si>
+  <si>
+    <t>RSCC</t>
+  </si>
+  <si>
+    <t>CFP</t>
+  </si>
+  <si>
+    <t>800000000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Angsuran</t>
+  </si>
+  <si>
+    <t>367800000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>96641800</t>
+  </si>
+  <si>
+    <t>105741900</t>
+  </si>
+  <si>
+    <t>115055300</t>
+  </si>
+  <si>
+    <t>123649600</t>
+  </si>
+  <si>
+    <t>131381400</t>
+  </si>
+  <si>
+    <t>138683000</t>
+  </si>
+  <si>
+    <t>24624300</t>
+  </si>
+  <si>
+    <t>12790300</t>
+  </si>
+  <si>
+    <t>8865600</t>
+  </si>
+  <si>
+    <t>6992800</t>
+  </si>
+  <si>
+    <t>6055700</t>
+  </si>
+  <si>
+    <t>5442900</t>
   </si>
   <si>
     <t>Total DP</t>
   </si>
   <si>
-    <t>98857700</t>
-  </si>
-  <si>
-    <t>97923100</t>
-  </si>
-  <si>
-    <t>102076900</t>
-  </si>
-  <si>
-    <t>107076300</t>
-  </si>
-  <si>
-    <t>113933700</t>
-  </si>
-  <si>
-    <t>120725100</t>
-  </si>
-  <si>
-    <t>15387800</t>
-  </si>
-  <si>
-    <t>7992700</t>
-  </si>
-  <si>
-    <t>5540100</t>
-  </si>
-  <si>
-    <t>4369900</t>
-  </si>
-  <si>
-    <t>3784200</t>
-  </si>
-  <si>
-    <t>3401300</t>
+    <t>503622400</t>
+  </si>
+  <si>
+    <t>471591500</t>
+  </si>
+  <si>
+    <t>460988100</t>
+  </si>
+  <si>
+    <t>455963800</t>
+  </si>
+  <si>
+    <t>453528700</t>
+  </si>
+  <si>
+    <t>451986000</t>
+  </si>
+  <si>
+    <t>68408400</t>
+  </si>
+  <si>
+    <t>36377500</t>
+  </si>
+  <si>
+    <t>25774100</t>
+  </si>
+  <si>
+    <t>20749800</t>
+  </si>
+  <si>
+    <t>18314700</t>
+  </si>
+  <si>
+    <t>16772000</t>
+  </si>
+  <si>
+    <t>435214000</t>
+  </si>
+  <si>
+    <t>62477900</t>
+  </si>
+  <si>
+    <t>33297100</t>
+  </si>
+  <si>
+    <t>23638900</t>
+  </si>
+  <si>
+    <t>19065700</t>
+  </si>
+  <si>
+    <t>16856300</t>
+  </si>
+  <si>
+    <t>15461200</t>
+  </si>
+  <si>
+    <t>65254700</t>
+  </si>
+  <si>
+    <t>34739400</t>
+  </si>
+  <si>
+    <t>24638700</t>
+  </si>
+  <si>
+    <t>19854200</t>
+  </si>
+  <si>
+    <t>17539100</t>
+  </si>
+  <si>
+    <t>16075000</t>
+  </si>
+  <si>
+    <t>66174000</t>
+  </si>
+  <si>
+    <t>35216900</t>
+  </si>
+  <si>
+    <t>24969600</t>
+  </si>
+  <si>
+    <t>20115300</t>
+  </si>
+  <si>
+    <t>17765200</t>
+  </si>
+  <si>
+    <t>16278100</t>
+  </si>
+  <si>
+    <t>66609500</t>
+  </si>
+  <si>
+    <t>35443100</t>
+  </si>
+  <si>
+    <t>25126400</t>
+  </si>
+  <si>
+    <t>20239000</t>
+  </si>
+  <si>
+    <t>17872300</t>
+  </si>
+  <si>
+    <t>16374400</t>
+  </si>
+  <si>
+    <t>66820600</t>
+  </si>
+  <si>
+    <t>35552800</t>
+  </si>
+  <si>
+    <t>25202400</t>
+  </si>
+  <si>
+    <t>20298900</t>
+  </si>
+  <si>
+    <t>17924200</t>
+  </si>
+  <si>
+    <t>16421100</t>
+  </si>
+  <si>
+    <t>66954400</t>
+  </si>
+  <si>
+    <t>35622200</t>
+  </si>
+  <si>
+    <t>25250600</t>
+  </si>
+  <si>
+    <t>20336900</t>
+  </si>
+  <si>
+    <t>17957100</t>
+  </si>
+  <si>
+    <t>16450600</t>
+  </si>
+  <si>
+    <t>Mobil Bekas</t>
+  </si>
+  <si>
+    <t>Refinancing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +554,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +577,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,17 +604,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,29 +958,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB8DF88-258B-400E-8F89-001F8DBC3DE5}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="20" max="25" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="20" max="25" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="31" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="37" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="43" width="17" bestFit="1" customWidth="1" collapsed="1"/>
@@ -701,13 +1004,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -730,92 +1033,92 @@
       <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -823,91 +1126,655 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="G2">
-        <v>1250000</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
         <v>60</v>
       </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>69</v>
+      <c r="T8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCA2653-F2B9-4BBB-9D39-6065D8ED20DF}">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,17 +1796,23 @@
     <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="33.88671875" customWidth="1"/>
-    <col min="16" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,207 +1826,1425 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L2" s="1">
+        <v>1200000000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1200000000</v>
+      </c>
+      <c r="M3" s="4">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1200000000</v>
+      </c>
+      <c r="M4" s="4">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5">
+        <v>1200000000</v>
+      </c>
+      <c r="M5">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <v>1200000000</v>
+      </c>
+      <c r="M6">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <v>1200000000</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <v>1200000000</v>
+      </c>
+      <c r="M8">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>1200000000</v>
+      </c>
+      <c r="M9">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>1200000000</v>
+      </c>
+      <c r="M10">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>1200000000</v>
+      </c>
+      <c r="M11">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12">
+        <v>1200000000</v>
+      </c>
+      <c r="M12">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>1200000000</v>
+      </c>
+      <c r="M13">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1200000000</v>
+      </c>
+      <c r="M14" s="8">
+        <v>36</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>1200000000</v>
+      </c>
+      <c r="M15">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>1200000000</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>1200000000</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18">
+        <v>1200000000</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <v>1200000000</v>
+      </c>
+      <c r="M19">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20">
+        <v>1200000000</v>
+      </c>
+      <c r="M20">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21">
+        <v>1200000000</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22">
+        <v>1200000000</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <v>1200000000</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24">
+        <v>1200000000</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25">
+        <v>1200000000</v>
+      </c>
+      <c r="M25">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="N25" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="O25" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>